--- a/data/trans_orig/P22_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P22_R-Habitat-trans_orig.xlsx
@@ -791,19 +791,19 @@
         <v>23754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14997</v>
+        <v>15589</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35232</v>
+        <v>35202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03433332641891851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02167603642969669</v>
+        <v>0.02253262065757243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05092347764527437</v>
+        <v>0.05087993421770085</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -812,19 +812,19 @@
         <v>16287</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9462</v>
+        <v>9515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25246</v>
+        <v>26096</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02369050996070976</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01376313830872062</v>
+        <v>0.01383960468874303</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03672084405592474</v>
+        <v>0.03795721109306482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -833,19 +833,19 @@
         <v>40041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28504</v>
+        <v>28818</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55349</v>
+        <v>52932</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02902870920736607</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02066466477335354</v>
+        <v>0.02089253254535225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04012676196444568</v>
+        <v>0.03837414264633172</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>24605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16723</v>
+        <v>15745</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36397</v>
+        <v>35222</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03556407903952041</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02417134644758471</v>
+        <v>0.02275830700013172</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05260708020096869</v>
+        <v>0.05090902889168483</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -883,19 +883,19 @@
         <v>31400</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21824</v>
+        <v>21947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42616</v>
+        <v>45150</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04567253916431908</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03174379031433935</v>
+        <v>0.03192231187781455</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06198688633564558</v>
+        <v>0.06567302677931902</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -904,19 +904,19 @@
         <v>56005</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41602</v>
+        <v>42157</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71853</v>
+        <v>71997</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04060236113062427</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03016005544956672</v>
+        <v>0.03056289903276949</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05209168886426219</v>
+        <v>0.05219560436288748</v>
       </c>
     </row>
     <row r="7">
@@ -933,19 +933,19 @@
         <v>643497</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>628153</v>
+        <v>629797</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>655529</v>
+        <v>656546</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9301025945415611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9079249692086676</v>
+        <v>0.9103005732833129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9474939337715712</v>
+        <v>0.9489634697674474</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>648</v>
@@ -954,19 +954,19 @@
         <v>639817</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>626682</v>
+        <v>625260</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>652898</v>
+        <v>651463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9306369508749711</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9115319949499099</v>
+        <v>0.9094640770719791</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9496650004821751</v>
+        <v>0.9475763382945134</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1283</v>
@@ -975,19 +975,19 @@
         <v>1283314</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1261982</v>
+        <v>1261694</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1300738</v>
+        <v>1300592</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9303689296620097</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9149042224398756</v>
+        <v>0.9146955674539018</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.943001250812231</v>
+        <v>0.942895355387494</v>
       </c>
     </row>
     <row r="8">
@@ -1079,19 +1079,19 @@
         <v>4454</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11567</v>
+        <v>14561</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00463594106298111</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001074866293158311</v>
+        <v>0.001085142271491413</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01203866277090832</v>
+        <v>0.01515532593844807</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5922</v>
+        <v>5292</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001094526185876138</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006114807163595025</v>
+        <v>0.005464859907869647</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1121,19 +1121,19 @@
         <v>5514</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1753</v>
+        <v>1650</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14669</v>
+        <v>13674</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002858261921908697</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0009088017045196815</v>
+        <v>0.0008552948730110865</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007603789948764485</v>
+        <v>0.007087977924447675</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>56738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42595</v>
+        <v>42661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72945</v>
+        <v>75366</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05905298265370285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04433335747314531</v>
+        <v>0.04440162901062848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07592168539049801</v>
+        <v>0.07844135444747988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1171,19 +1171,19 @@
         <v>39819</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27732</v>
+        <v>28129</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54356</v>
+        <v>53997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04111833260909429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02863678189134597</v>
+        <v>0.02904670590574015</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05613007013671143</v>
+        <v>0.05575925988451447</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -1192,19 +1192,19 @@
         <v>96557</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78637</v>
+        <v>78685</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117889</v>
+        <v>117596</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.050050351108653</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04076153094179906</v>
+        <v>0.04078628364764172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06110785200602862</v>
+        <v>0.06095606710619038</v>
       </c>
     </row>
     <row r="11">
@@ -1221,19 +1221,19 @@
         <v>29261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19802</v>
+        <v>19342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42077</v>
+        <v>42743</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03045473548603562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02061013906984929</v>
+        <v>0.02013127878684486</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04379382177756892</v>
+        <v>0.04448748004632153</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -1242,19 +1242,19 @@
         <v>38736</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27613</v>
+        <v>27671</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52782</v>
+        <v>53863</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04000013055179335</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02851433951832454</v>
+        <v>0.02857406704501213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05450508311544169</v>
+        <v>0.05562112701705459</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -1263,19 +1263,19 @@
         <v>67997</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52550</v>
+        <v>52530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86677</v>
+        <v>86424</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03524622428092218</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02723923888342502</v>
+        <v>0.02722928546907175</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04492930962177134</v>
+        <v>0.04479791474160836</v>
       </c>
     </row>
     <row r="12">
@@ -1292,19 +1292,19 @@
         <v>870344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>850447</v>
+        <v>847930</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>887908</v>
+        <v>887907</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9058563407972804</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.885147290153907</v>
+        <v>0.882527386997614</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9241374316824961</v>
+        <v>0.9241355875395986</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>835</v>
@@ -1313,19 +1313,19 @@
         <v>888779</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>869493</v>
+        <v>869157</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>905474</v>
+        <v>905191</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9177870106532362</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8978716001711081</v>
+        <v>0.8975247056038996</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9350272682025004</v>
+        <v>0.9347354765241842</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1650</v>
@@ -1334,19 +1334,19 @@
         <v>1759123</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1732129</v>
+        <v>1726893</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1784425</v>
+        <v>1781741</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9118451626885161</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8978526063009423</v>
+        <v>0.8951383323598159</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9249601933904145</v>
+        <v>0.9235688180337666</v>
       </c>
     </row>
     <row r="13">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8231</v>
+        <v>8295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002428290619688067</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01214716785321052</v>
+        <v>0.01224158244738105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9865</v>
+        <v>8189</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001208562918915336</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007245747228238236</v>
+        <v>0.006015168720639202</v>
       </c>
     </row>
     <row r="15">
@@ -1501,19 +1501,19 @@
         <v>57296</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>43767</v>
+        <v>43355</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>75377</v>
+        <v>73759</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08455921646000605</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06459309290348988</v>
+        <v>0.06398469970497898</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1112436668708617</v>
+        <v>0.1088569032347728</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -1522,19 +1522,19 @@
         <v>42442</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30534</v>
+        <v>30582</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>56060</v>
+        <v>55731</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06206404328141538</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04465027871450386</v>
+        <v>0.04472034408631845</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08197746912953369</v>
+        <v>0.08149768578872933</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>96</v>
@@ -1543,19 +1543,19 @@
         <v>99738</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>80304</v>
+        <v>82559</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>122175</v>
+        <v>121535</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07325991577616475</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05898561844841527</v>
+        <v>0.06064204150656292</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08974091323484532</v>
+        <v>0.08927038999489986</v>
       </c>
     </row>
     <row r="16">
@@ -1572,19 +1572,19 @@
         <v>27330</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18187</v>
+        <v>17736</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38318</v>
+        <v>38753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04033419836096881</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02684169616980832</v>
+        <v>0.02617491090504387</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05655124620733716</v>
+        <v>0.05719284401765877</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1593,19 +1593,19 @@
         <v>32472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23245</v>
+        <v>22940</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45173</v>
+        <v>44155</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04748521557955646</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03399179241619388</v>
+        <v>0.03354594892806873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06605747961082116</v>
+        <v>0.06456862107456639</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -1614,19 +1614,19 @@
         <v>59802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45745</v>
+        <v>46167</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77926</v>
+        <v>78113</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04392614642496725</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03360060446581346</v>
+        <v>0.03391086566876216</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05723837770390208</v>
+        <v>0.05737599134494751</v>
       </c>
     </row>
     <row r="17">
@@ -1643,19 +1643,19 @@
         <v>591311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>573093</v>
+        <v>573893</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>608826</v>
+        <v>609099</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8726782945593371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8457916211819063</v>
+        <v>0.8469726589257884</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8985280334910709</v>
+        <v>0.898930627702472</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>621</v>
@@ -1664,19 +1664,19 @@
         <v>608927</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>591377</v>
+        <v>591729</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>623149</v>
+        <v>624357</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8904507411390281</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8647867290145959</v>
+        <v>0.8653018787055441</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9112487127787818</v>
+        <v>0.9130152795064297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1181</v>
@@ -1685,19 +1685,19 @@
         <v>1200238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1170803</v>
+        <v>1174844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1223747</v>
+        <v>1223495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8816053748799527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8599845610185795</v>
+        <v>0.8629528031825643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8988735739728922</v>
+        <v>0.8986882608235353</v>
       </c>
     </row>
     <row r="18">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4681</v>
+        <v>5210</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0008973349579644156</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.004512001321439357</v>
+        <v>0.00502226142428791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4682</v>
+        <v>5253</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0004707980139195642</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002368057139837057</v>
+        <v>0.002656646413101368</v>
       </c>
     </row>
     <row r="20">
@@ -1852,19 +1852,19 @@
         <v>77838</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61895</v>
+        <v>63884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95867</v>
+        <v>95956</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08281539752056478</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06585293512575006</v>
+        <v>0.06796884507706644</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1019966028943155</v>
+        <v>0.102092029630688</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -1873,19 +1873,19 @@
         <v>77015</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60281</v>
+        <v>61215</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94615</v>
+        <v>95754</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0742357557916891</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05810605730619305</v>
+        <v>0.05900667388652415</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09120122460752474</v>
+        <v>0.09229869188794299</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -1894,19 +1894,19 @@
         <v>154853</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132423</v>
+        <v>132828</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178959</v>
+        <v>180043</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07831398113168465</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06697080016185855</v>
+        <v>0.06717535817320391</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09050516727403253</v>
+        <v>0.09105372812413168</v>
       </c>
     </row>
     <row r="21">
@@ -1923,19 +1923,19 @@
         <v>49572</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36559</v>
+        <v>37508</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63272</v>
+        <v>64436</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05274165194785407</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03889696625304509</v>
+        <v>0.03990622111330486</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06731782410843457</v>
+        <v>0.06855595225360406</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -1944,19 +1944,19 @@
         <v>43502</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31447</v>
+        <v>31223</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>57908</v>
+        <v>58518</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04193228010412076</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03031263956793833</v>
+        <v>0.03009633225260909</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05581843599884966</v>
+        <v>0.0564067756537532</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>93</v>
@@ -1965,19 +1965,19 @@
         <v>93074</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>77295</v>
+        <v>75688</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>112971</v>
+        <v>113770</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04707037975392099</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03909063363947678</v>
+        <v>0.03827798623275903</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05713327883553887</v>
+        <v>0.05753705996931967</v>
       </c>
     </row>
     <row r="22">
@@ -1994,19 +1994,19 @@
         <v>812490</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>790353</v>
+        <v>790368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>832967</v>
+        <v>830902</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8644429505315812</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8408907804247865</v>
+        <v>0.8409064418364103</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8862293409277957</v>
+        <v>0.8840324914198469</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>880</v>
@@ -2015,19 +2015,19 @@
         <v>915985</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>892705</v>
+        <v>893916</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>935928</v>
+        <v>936789</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8829346291462257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8604945509069285</v>
+        <v>0.8616625513371924</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9021580531883748</v>
+        <v>0.9029881376460308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1736</v>
@@ -2036,19 +2036,19 @@
         <v>1728474</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1697901</v>
+        <v>1697718</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1754742</v>
+        <v>1757002</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8741448411004747</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8586833681818236</v>
+        <v>0.8585908048624923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8874295753718229</v>
+        <v>0.8885723656443318</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>6100</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001865233617310533</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0005895041009453678</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2182,19 +2182,19 @@
         <v>8090</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001217097974012659</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
     </row>
     <row r="25">
@@ -2211,19 +2211,19 @@
         <v>215626</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>187265</v>
+        <v>189421</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>243840</v>
+        <v>244491</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0659378354222936</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0572652960795984</v>
+        <v>0.05792459388754227</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07456558338251881</v>
+        <v>0.07476471847284798</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>170</v>
@@ -2232,19 +2232,19 @@
         <v>175563</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>150550</v>
+        <v>151122</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>206312</v>
+        <v>205800</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05198509762536468</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0445786863457087</v>
+        <v>0.0447481572945548</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06109015424158237</v>
+        <v>0.06093849432239743</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>379</v>
@@ -2253,19 +2253,19 @@
         <v>391188</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>353197</v>
+        <v>355706</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>431929</v>
+        <v>433862</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05884913317642463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05313381621879094</v>
+        <v>0.05351136389692574</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06497812125735823</v>
+        <v>0.06526888824248757</v>
       </c>
     </row>
     <row r="26">
@@ -2282,19 +2282,19 @@
         <v>130768</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03998845209454274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>139</v>
@@ -2303,19 +2303,19 @@
         <v>146110</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04326407202593066</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>268</v>
@@ -2324,19 +2324,19 @@
         <v>276878</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04165263404235757</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
     </row>
     <row r="27">
@@ -2353,19 +2353,19 @@
         <v>2917642</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2879798</v>
+        <v>2880655</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2953406</v>
+        <v>2951954</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8922084788658531</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.880635763183515</v>
+        <v>0.8808977508968203</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9031451275137928</v>
+        <v>0.902701007485365</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2984</v>
@@ -2374,19 +2374,19 @@
         <v>3053507</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3016292</v>
+        <v>3019218</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3085698</v>
+        <v>3086992</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9041613262477592</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8931418905883693</v>
+        <v>0.894008427077558</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9136934775182509</v>
+        <v>0.9140765587839939</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5850</v>
@@ -2395,19 +2395,19 @@
         <v>5971148</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5916570</v>
+        <v>5920057</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6017620</v>
+        <v>6022116</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8982811348072052</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8900706284595722</v>
+        <v>0.8905951537277289</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9052722087049012</v>
+        <v>0.9059486196889498</v>
       </c>
     </row>
     <row r="28">
@@ -2786,19 +2786,19 @@
         <v>23085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14970</v>
+        <v>14172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34754</v>
+        <v>33832</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03281529594973269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02128015791831838</v>
+        <v>0.02014523655776701</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04940427649908927</v>
+        <v>0.04809309748560819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -2807,19 +2807,19 @@
         <v>19551</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12066</v>
+        <v>12210</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29519</v>
+        <v>29463</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02804850688317843</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01730941180712394</v>
+        <v>0.01751685125646862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04234786753089773</v>
+        <v>0.04226865416286698</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -2828,19 +2828,19 @@
         <v>42636</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31162</v>
+        <v>31447</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58890</v>
+        <v>57783</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03044282519606753</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0222500175414962</v>
+        <v>0.02245408995208658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04204898006268788</v>
+        <v>0.04125810510138598</v>
       </c>
     </row>
     <row r="6">
@@ -2857,19 +2857,19 @@
         <v>25407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15641</v>
+        <v>16184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39415</v>
+        <v>38383</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03611614898188111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02223421437582074</v>
+        <v>0.02300552301650676</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05602936003145079</v>
+        <v>0.05456181947087262</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -2878,19 +2878,19 @@
         <v>7755</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3075</v>
+        <v>3085</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16040</v>
+        <v>15303</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01112563277222598</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004411928649213599</v>
+        <v>0.004425581321898359</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02301122369760257</v>
+        <v>0.02195427685743685</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -2899,19 +2899,19 @@
         <v>33162</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22080</v>
+        <v>21828</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47497</v>
+        <v>47893</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0236781602228652</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01576543872882888</v>
+        <v>0.01558580091974249</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03391418706818767</v>
+        <v>0.03419625256373247</v>
       </c>
     </row>
     <row r="7">
@@ -2928,19 +2928,19 @@
         <v>654978</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>639197</v>
+        <v>639719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>669065</v>
+        <v>668543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9310685550683861</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9086362329889116</v>
+        <v>0.9093779660317999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9510936582948102</v>
+        <v>0.9503520885590645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>624</v>
@@ -2949,19 +2949,19 @@
         <v>669744</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>658294</v>
+        <v>658786</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>679267</v>
+        <v>679160</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9608258603445956</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9443995908821061</v>
+        <v>0.9451051017222325</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.974487856064282</v>
+        <v>0.9743353892995172</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1255</v>
@@ -2970,19 +2970,19 @@
         <v>1324722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1303567</v>
+        <v>1304939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1340652</v>
+        <v>1340479</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9458790145810673</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9307744647849606</v>
+        <v>0.9317538038233215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9572533939029405</v>
+        <v>0.9571300282223066</v>
       </c>
     </row>
     <row r="8">
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6728</v>
+        <v>4809</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001158307667118749</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006518036366759276</v>
+        <v>0.004658608207484259</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7196</v>
+        <v>6005</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0005834549692434805</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003511740442053037</v>
+        <v>0.002930480535049312</v>
       </c>
     </row>
     <row r="10">
@@ -3137,19 +3137,19 @@
         <v>41455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30168</v>
+        <v>30112</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55942</v>
+        <v>56072</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04076332402904062</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02966430104555853</v>
+        <v>0.02960967027124248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05500912629767064</v>
+        <v>0.05513673605123163</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3158,19 +3158,19 @@
         <v>37741</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26353</v>
+        <v>26915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49950</v>
+        <v>51261</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03656456245032497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02553120140112091</v>
+        <v>0.02607558763950338</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04839235542751723</v>
+        <v>0.04966256414521421</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -3179,19 +3179,19 @@
         <v>79196</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63625</v>
+        <v>62176</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98690</v>
+        <v>98990</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03864835200795057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03104949980190021</v>
+        <v>0.03034236426907018</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04816124394100916</v>
+        <v>0.04830761647975675</v>
       </c>
     </row>
     <row r="11">
@@ -3208,19 +3208,19 @@
         <v>47619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33599</v>
+        <v>32927</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63720</v>
+        <v>63774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04682433700763087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03303831855010007</v>
+        <v>0.03237724155039919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06265675562237713</v>
+        <v>0.06270970779892233</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -3229,19 +3229,19 @@
         <v>23508</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14733</v>
+        <v>14993</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36759</v>
+        <v>35534</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02277517572373866</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01427353886286066</v>
+        <v>0.01452510095873919</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03561315563205016</v>
+        <v>0.03442556480941811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -3250,19 +3250,19 @@
         <v>71127</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52730</v>
+        <v>53396</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>91404</v>
+        <v>92526</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03471045478484635</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02573280694134902</v>
+        <v>0.02605758211932849</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04460595548930946</v>
+        <v>0.04515345620093129</v>
       </c>
     </row>
     <row r="12">
@@ -3279,19 +3279,19 @@
         <v>927892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>908381</v>
+        <v>908164</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>947138</v>
+        <v>946860</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9124123389633285</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8932262801474428</v>
+        <v>0.893013574023662</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9313367642958698</v>
+        <v>0.9310640292280417</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>883</v>
@@ -3300,19 +3300,19 @@
         <v>969739</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>952772</v>
+        <v>953293</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>984299</v>
+        <v>983465</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9395019541588177</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9230637700376918</v>
+        <v>0.9235690398701363</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9536083338812608</v>
+        <v>0.9528001318523712</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1741</v>
@@ -3321,19 +3321,19 @@
         <v>1897631</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1868508</v>
+        <v>1867817</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1920379</v>
+        <v>1922039</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9260577382379596</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9118456400955592</v>
+        <v>0.9115081238036775</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9371586314611886</v>
+        <v>0.9379690185557983</v>
       </c>
     </row>
     <row r="13">
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8533</v>
+        <v>8545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003225390774538701</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01126330042397819</v>
+        <v>0.01127857152497434</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8497</v>
+        <v>8604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001592152407220464</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005535993501956631</v>
+        <v>0.005606144189799553</v>
       </c>
     </row>
     <row r="15">
@@ -3488,19 +3488,19 @@
         <v>40481</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29105</v>
+        <v>28467</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55883</v>
+        <v>56138</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05343218416650994</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03841597934733056</v>
+        <v>0.03757448291040588</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07376134663473426</v>
+        <v>0.07409763761837306</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>25</v>
@@ -3509,19 +3509,19 @@
         <v>29178</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19016</v>
+        <v>19147</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41646</v>
+        <v>43090</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03754404134149835</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02446856025655447</v>
+        <v>0.02463699763716257</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05358625477858755</v>
+        <v>0.0554447209348814</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>61</v>
@@ -3530,19 +3530,19 @@
         <v>69660</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53362</v>
+        <v>53826</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>89872</v>
+        <v>90602</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04538691887584073</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03476786821985477</v>
+        <v>0.03507043939641504</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05855640583427497</v>
+        <v>0.0590318742161019</v>
       </c>
     </row>
     <row r="16">
@@ -3559,19 +3559,19 @@
         <v>40157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27037</v>
+        <v>27993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54483</v>
+        <v>57814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0530041944230509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03568723754847251</v>
+        <v>0.0369483910866864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07191370263333134</v>
+        <v>0.07630934326282986</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -3580,19 +3580,19 @@
         <v>44500</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30846</v>
+        <v>30338</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62027</v>
+        <v>60499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05725860259758189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03969014963470772</v>
+        <v>0.0390360971490787</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07981037899640062</v>
+        <v>0.07784455461138584</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -3601,19 +3601,19 @@
         <v>84657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66093</v>
+        <v>64626</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107979</v>
+        <v>104792</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05515849545092252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04306311627836608</v>
+        <v>0.04210706215354754</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07035390747572366</v>
+        <v>0.06827770005461474</v>
       </c>
     </row>
     <row r="17">
@@ -3630,19 +3630,19 @@
         <v>674541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>654268</v>
+        <v>652698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>691778</v>
+        <v>690445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8903382306359005</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8635793241646069</v>
+        <v>0.8615072176968337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.913090634472732</v>
+        <v>0.9113309275501745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>646</v>
@@ -3651,19 +3651,19 @@
         <v>703496</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>682601</v>
+        <v>682622</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>720558</v>
+        <v>721544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9051973560609198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8783119582943599</v>
+        <v>0.8783390428759968</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9271515137595546</v>
+        <v>0.9284197112127167</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1265</v>
@@ -3672,19 +3672,19 @@
         <v>1378037</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1349143</v>
+        <v>1351000</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1402372</v>
+        <v>1402964</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8978624332660163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8790365113736966</v>
+        <v>0.8802466729766905</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9137183776770094</v>
+        <v>0.9141037194522015</v>
       </c>
     </row>
     <row r="18">
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6342</v>
+        <v>7401</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001338104732974931</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006691394010193251</v>
+        <v>0.007808811901952029</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6403</v>
+        <v>6956</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0006342013052863172</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003201888592035592</v>
+        <v>0.00347855386912846</v>
       </c>
     </row>
     <row r="20">
@@ -3839,19 +3839,19 @@
         <v>52641</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39738</v>
+        <v>39035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70060</v>
+        <v>69259</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05554359261326838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04192911228809292</v>
+        <v>0.04118782499638414</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07392350905089759</v>
+        <v>0.07307813929499195</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -3860,19 +3860,19 @@
         <v>63011</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46254</v>
+        <v>48146</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78070</v>
+        <v>79675</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05990160940834319</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04397178299506114</v>
+        <v>0.04577090788415473</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07421789936131179</v>
+        <v>0.07574420864229854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -3881,19 +3881,19 @@
         <v>115651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95579</v>
+        <v>94798</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>139060</v>
+        <v>138624</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05783610596023012</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04779801764040987</v>
+        <v>0.0474073970764853</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06954237241723095</v>
+        <v>0.06932443087525637</v>
       </c>
     </row>
     <row r="21">
@@ -3910,19 +3910,19 @@
         <v>45807</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32958</v>
+        <v>33142</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61873</v>
+        <v>61009</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04833314302913441</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03477570851416268</v>
+        <v>0.03496980524826585</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06528437493462549</v>
+        <v>0.06437278092698234</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -3931,19 +3931,19 @@
         <v>46735</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34378</v>
+        <v>34821</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>63183</v>
+        <v>63636</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.044429419824133</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03268144379722001</v>
+        <v>0.03310249286158656</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06006580195807174</v>
+        <v>0.06049641789159649</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>86</v>
@@ -3952,19 +3952,19 @@
         <v>92543</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73622</v>
+        <v>73334</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>115857</v>
+        <v>116208</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04627960859566824</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03681754298784338</v>
+        <v>0.03667354455512312</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05793906455686074</v>
+        <v>0.05811435100105673</v>
       </c>
     </row>
     <row r="22">
@@ -3981,19 +3981,19 @@
         <v>848023</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>825404</v>
+        <v>827209</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>866064</v>
+        <v>866150</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8947851596246222</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.870919048030056</v>
+        <v>0.8728235367546108</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9138216429723988</v>
+        <v>0.9139124482235547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>902</v>
@@ -4002,19 +4002,19 @@
         <v>942155</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>919237</v>
+        <v>920903</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>962971</v>
+        <v>961453</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8956689707675238</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8738816483129672</v>
+        <v>0.8754652020173841</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9154575836079989</v>
+        <v>0.9140143074130909</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1717</v>
@@ -4023,19 +4023,19 @@
         <v>1790178</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1760671</v>
+        <v>1758213</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1818598</v>
+        <v>1816199</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8952500841388153</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8804938642417924</v>
+        <v>0.8792648713008465</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9094628375307606</v>
+        <v>0.9082631323277716</v>
       </c>
     </row>
     <row r="23">
@@ -4127,19 +4127,19 @@
         <v>3712</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10009</v>
+        <v>10023</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001083486624067237</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003529966623905962</v>
+        <v>0.0003519520413960138</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.002921677187784288</v>
+        <v>0.002925602997997444</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0003359985463963319</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.001684012584879153</v>
+        <v>0.001682962210848899</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -4169,19 +4169,19 @@
         <v>4907</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11579</v>
+        <v>12139</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0007026514280744572</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0001751618645470115</v>
+        <v>0.0001796426628966159</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001657895224607754</v>
+        <v>0.001738117953636878</v>
       </c>
     </row>
     <row r="25">
@@ -4198,19 +4198,19 @@
         <v>157662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133178</v>
+        <v>132504</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>182807</v>
+        <v>184248</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04602191712718748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03887494816695725</v>
+        <v>0.03867836304736937</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05336189745868819</v>
+        <v>0.05378243047157579</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>138</v>
@@ -4219,19 +4219,19 @@
         <v>149481</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>126801</v>
+        <v>126640</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>176435</v>
+        <v>176584</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04200910711895786</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03563517804551721</v>
+        <v>0.03558986943387049</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04958403618474268</v>
+        <v>0.04962583180756835</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>285</v>
@@ -4240,19 +4240,19 @@
         <v>307143</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>273734</v>
+        <v>273976</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>346887</v>
+        <v>345686</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0439774440023081</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03919390540770182</v>
+        <v>0.03922843863669839</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04966805321172874</v>
+        <v>0.04949602102983668</v>
       </c>
     </row>
     <row r="26">
@@ -4269,19 +4269,19 @@
         <v>158990</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04640956665480246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>104</v>
@@ -4290,19 +4290,19 @@
         <v>122499</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03442605532523693</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>239</v>
@@ -4311,19 +4311,19 @@
         <v>281488</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04030412762211991</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
     </row>
     <row r="27">
@@ -4340,19 +4340,19 @@
         <v>3105435</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3067843</v>
+        <v>3066793</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3141063</v>
+        <v>3139565</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9064850295939428</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8955118567012791</v>
+        <v>0.8952053297779341</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9168850849892409</v>
+        <v>0.916447693830337</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3055</v>
@@ -4361,19 +4361,19 @@
         <v>3285133</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3251837</v>
+        <v>3252777</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3317618</v>
+        <v>3320237</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9232288390094089</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9138714403771363</v>
+        <v>0.9141357309009236</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9323580165370061</v>
+        <v>0.9330940274544864</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5978</v>
@@ -4382,19 +4382,19 @@
         <v>6390568</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6339461</v>
+        <v>6334609</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6439485</v>
+        <v>6433815</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9150157769474975</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.907698166376712</v>
+        <v>0.9070033752770634</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9220198370261226</v>
+        <v>0.9212079495076542</v>
       </c>
     </row>
     <row r="28">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4266</v>
+        <v>4294</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001264493674661517</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006340389226678277</v>
+        <v>0.006381711487503355</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4259</v>
+        <v>4295</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0006318745833422134</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003163304377895236</v>
+        <v>0.00318983771482485</v>
       </c>
     </row>
     <row r="5">
@@ -4789,19 +4789,19 @@
         <v>11260</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5855</v>
+        <v>5302</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21915</v>
+        <v>20703</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01671482933181642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008692174442005138</v>
+        <v>0.007870948283281385</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03253238148186272</v>
+        <v>0.03073280510244535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -4810,19 +4810,19 @@
         <v>15181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8668</v>
+        <v>8933</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24144</v>
+        <v>25607</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02256299656377175</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01288281714136355</v>
+        <v>0.01327675893138443</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0358838332647415</v>
+        <v>0.03805796659344374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -4831,19 +4831,19 @@
         <v>26441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17579</v>
+        <v>18032</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38815</v>
+        <v>39942</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0196371913072502</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01305591125776973</v>
+        <v>0.01339207046733676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02882706952448528</v>
+        <v>0.02966453071022975</v>
       </c>
     </row>
     <row r="6">
@@ -4860,19 +4860,19 @@
         <v>20276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12576</v>
+        <v>12298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32068</v>
+        <v>31653</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03009922759116402</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01866856338377439</v>
+        <v>0.01825686997132356</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04760417764888072</v>
+        <v>0.04698857521499838</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -4881,19 +4881,19 @@
         <v>8621</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3869</v>
+        <v>3880</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16331</v>
+        <v>17356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01281251861283505</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005749556084779193</v>
+        <v>0.005766770959629845</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02427201428256065</v>
+        <v>0.02579544770973591</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -4902,19 +4902,19 @@
         <v>28897</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18754</v>
+        <v>19260</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41063</v>
+        <v>41335</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02146096213209509</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01392803257396426</v>
+        <v>0.01430418348356758</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03049704089765062</v>
+        <v>0.03069897035678228</v>
       </c>
     </row>
     <row r="7">
@@ -4931,19 +4931,19 @@
         <v>642097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>629031</v>
+        <v>628797</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>652356</v>
+        <v>653330</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9531859430770195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9337907079966543</v>
+        <v>0.9334435855524352</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9684157412012876</v>
+        <v>0.9698612177009603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>642</v>
@@ -4952,19 +4952,19 @@
         <v>648186</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>636418</v>
+        <v>635641</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>657123</v>
+        <v>656151</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9633599911487317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.945869812926188</v>
+        <v>0.9447143670934588</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9766416304943411</v>
+        <v>0.9751982669671114</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1265</v>
@@ -4973,19 +4973,19 @@
         <v>1290283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1273912</v>
+        <v>1270622</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1304209</v>
+        <v>1303258</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9582699719773125</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9461114868469573</v>
+        <v>0.9436686263938932</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9686125209655246</v>
+        <v>0.9679064158503835</v>
       </c>
     </row>
     <row r="8">
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9610</v>
+        <v>8837</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001726739232894705</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009407916073337996</v>
+        <v>0.008650618127889989</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7309</v>
+        <v>6530</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001163098004383861</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.007020980369742595</v>
+        <v>0.006272448699997545</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9793</v>
+        <v>11160</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001442252749751744</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004748324897738362</v>
+        <v>0.005411104869231137</v>
       </c>
     </row>
     <row r="10">
@@ -5148,19 +5148,19 @@
         <v>37128</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25189</v>
+        <v>25989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50799</v>
+        <v>51832</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03634624952471643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02465858703284555</v>
+        <v>0.02544163433621478</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04973037706321146</v>
+        <v>0.05074093618024889</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -5169,19 +5169,19 @@
         <v>47990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34209</v>
+        <v>35178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63626</v>
+        <v>64169</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04609917963528917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03286150255111264</v>
+        <v>0.0337920734862038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06112003598610066</v>
+        <v>0.06164150282089285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -5190,19 +5190,19 @@
         <v>85117</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65735</v>
+        <v>66227</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106821</v>
+        <v>104776</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04126884327256281</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03187152964562904</v>
+        <v>0.03210991347973054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05179170788760937</v>
+        <v>0.05080063407542942</v>
       </c>
     </row>
     <row r="11">
@@ -5219,19 +5219,19 @@
         <v>54347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39731</v>
+        <v>41422</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71581</v>
+        <v>71666</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05320297027056427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0388947590542882</v>
+        <v>0.04055019303873394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07007440012364492</v>
+        <v>0.07015760821042998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -5240,19 +5240,19 @@
         <v>24852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16739</v>
+        <v>16580</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37000</v>
+        <v>34983</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02387299328012862</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01607917572701986</v>
+        <v>0.01592646525195573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03554219869842139</v>
+        <v>0.03360468732576732</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>71</v>
@@ -5261,19 +5261,19 @@
         <v>79199</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>61965</v>
+        <v>63734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98773</v>
+        <v>100209</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03839925900423612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03004350532141601</v>
+        <v>0.03090137644459891</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04789009681991062</v>
+        <v>0.04858627844982693</v>
       </c>
     </row>
     <row r="12">
@@ -5290,19 +5290,19 @@
         <v>928258</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>908682</v>
+        <v>905564</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>948442</v>
+        <v>945589</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9087240409718246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8895596963431249</v>
+        <v>0.8865072322067086</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.928483479787009</v>
+        <v>0.9256903967526459</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>906</v>
@@ -5311,19 +5311,19 @@
         <v>966955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>948188</v>
+        <v>949703</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>983926</v>
+        <v>983976</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9288647290801983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9108369041242674</v>
+        <v>0.9122928622114811</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9451675604129802</v>
+        <v>0.9452158970710721</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1778</v>
@@ -5332,19 +5332,19 @@
         <v>1895213</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1868942</v>
+        <v>1866301</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1920424</v>
+        <v>1918697</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9188896449734493</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9061525458166899</v>
+        <v>0.9048720935764684</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9311131829640173</v>
+        <v>0.9302761315805086</v>
       </c>
     </row>
     <row r="13">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4373</v>
+        <v>5582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001386288988486531</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005598624091653857</v>
+        <v>0.007145682275169495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5450</v>
+        <v>6050</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.000703687811173566</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003541953800470053</v>
+        <v>0.00393152614515737</v>
       </c>
     </row>
     <row r="15">
@@ -5499,19 +5499,19 @@
         <v>20467</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12379</v>
+        <v>12592</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30629</v>
+        <v>30723</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0270122481024445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01633806849237507</v>
+        <v>0.01661854246702192</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0404235969475807</v>
+        <v>0.04054705380762556</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -5520,19 +5520,19 @@
         <v>20387</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13453</v>
+        <v>12791</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>30617</v>
+        <v>31077</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0260993524228616</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01722262088497523</v>
+        <v>0.01637579338799926</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03919689521162527</v>
+        <v>0.03978555928700703</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>39</v>
@@ -5541,19 +5541,19 @@
         <v>40854</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>29404</v>
+        <v>28754</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>54273</v>
+        <v>54402</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02654885730302913</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01910838376281072</v>
+        <v>0.01868582564293696</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.035269392478703</v>
+        <v>0.03535335378115397</v>
       </c>
     </row>
     <row r="16">
@@ -5570,19 +5570,19 @@
         <v>16897</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10412</v>
+        <v>9635</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27098</v>
+        <v>26494</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02230052696984135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0137409701583066</v>
+        <v>0.01271644591304518</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03576292694734615</v>
+        <v>0.03496574608725174</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -5591,19 +5591,19 @@
         <v>30746</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21639</v>
+        <v>20505</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43691</v>
+        <v>43735</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03936183319751991</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02770266503619217</v>
+        <v>0.02625049552190524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05593398735176647</v>
+        <v>0.05599034225580989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -5612,19 +5612,19 @@
         <v>47643</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34645</v>
+        <v>34702</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64169</v>
+        <v>63191</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03096093856859777</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02251430659415776</v>
+        <v>0.02255088452030277</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04170031506506166</v>
+        <v>0.04106477016731262</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>720341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>707805</v>
+        <v>707661</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>731469</v>
+        <v>731716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9506872249277142</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9341417291371171</v>
+        <v>0.9339518080482413</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9653734321400014</v>
+        <v>0.9656984414268248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>683</v>
@@ -5662,19 +5662,19 @@
         <v>728897</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>713281</v>
+        <v>712298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>741069</v>
+        <v>741296</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9331525253911319</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9131609029596656</v>
+        <v>0.9119021848551696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9487355344347653</v>
+        <v>0.949026898810912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1343</v>
@@ -5683,19 +5683,19 @@
         <v>1449238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1430031</v>
+        <v>1428844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1467003</v>
+        <v>1467307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9417865163171996</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9293049359797703</v>
+        <v>0.9285333030638253</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9533311014415247</v>
+        <v>0.9535284186312217</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>5004</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1502</v>
+        <v>1225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12477</v>
+        <v>12871</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005342213621808917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001603370951577284</v>
+        <v>0.001308245706675943</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01332136026470339</v>
+        <v>0.01374227538856629</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5821,19 +5821,19 @@
         <v>5004</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13140</v>
+        <v>11800</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002526550228422398</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0006159843337849775</v>
+        <v>0.0006185313327893757</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006635048739270184</v>
+        <v>0.00595856340098897</v>
       </c>
     </row>
     <row r="20">
@@ -5850,19 +5850,19 @@
         <v>53376</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39096</v>
+        <v>39972</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68175</v>
+        <v>68920</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05698937702775027</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0417419807515532</v>
+        <v>0.04267789570747474</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07279001098963084</v>
+        <v>0.07358521606039455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -5871,19 +5871,19 @@
         <v>69423</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>55198</v>
+        <v>53952</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87507</v>
+        <v>89917</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06651154890862467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05288306281927628</v>
+        <v>0.05168875228646611</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08383624169054683</v>
+        <v>0.0861455073714622</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>113</v>
@@ -5892,19 +5892,19 @@
         <v>122800</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101533</v>
+        <v>103445</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>145547</v>
+        <v>145826</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06200812631195318</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05126937801774098</v>
+        <v>0.0522347427729233</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07349439848577537</v>
+        <v>0.07363543436625125</v>
       </c>
     </row>
     <row r="21">
@@ -5921,19 +5921,19 @@
         <v>64826</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50799</v>
+        <v>50847</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>82207</v>
+        <v>82754</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06921356354004272</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05423706913925495</v>
+        <v>0.05428853947900046</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0877713843941247</v>
+        <v>0.08835525918129536</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>51</v>
@@ -5942,19 +5942,19 @@
         <v>56966</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43787</v>
+        <v>42932</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73207</v>
+        <v>73599</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05457666599678465</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04195005755459202</v>
+        <v>0.04113089797861528</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07013687346270782</v>
+        <v>0.07051201632000605</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>114</v>
@@ -5963,19 +5963,19 @@
         <v>121792</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>101369</v>
+        <v>100039</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>145820</v>
+        <v>144261</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06149905050801876</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05118667851862661</v>
+        <v>0.05051478860811982</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07363227996108916</v>
+        <v>0.0728452331296509</v>
       </c>
     </row>
     <row r="22">
@@ -5992,19 +5992,19 @@
         <v>813397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>791692</v>
+        <v>790846</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>833231</v>
+        <v>830895</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8684548458103981</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.845280064880735</v>
+        <v>0.8443771647563231</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8896307885459152</v>
+        <v>0.8871371325090874</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>847</v>
@@ -6013,19 +6013,19 @@
         <v>917390</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>894781</v>
+        <v>892783</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>938130</v>
+        <v>938624</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8789117850945907</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8572514097752855</v>
+        <v>0.8553368277919895</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8987820279742215</v>
+        <v>0.8992555348900986</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1659</v>
@@ -6034,19 +6034,19 @@
         <v>1730787</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1699343</v>
+        <v>1697928</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1759377</v>
+        <v>1758635</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8739662729516057</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8580882497913546</v>
+        <v>0.8573739178856681</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8884029464755018</v>
+        <v>0.8880280579664259</v>
       </c>
     </row>
     <row r="23">
@@ -6138,19 +6138,19 @@
         <v>6767</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2355</v>
+        <v>2444</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15549</v>
+        <v>16815</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001996612670066702</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0006948723279783371</v>
+        <v>0.0007210143221238718</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004587589812335854</v>
+        <v>0.004960928970932939</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -6159,19 +6159,19 @@
         <v>3144</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9302</v>
+        <v>9591</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.000888577175965079</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.000239454274910001</v>
+        <v>0.0002404616721481113</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.002628525092160147</v>
+        <v>0.002710243421809143</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -6180,19 +6180,19 @@
         <v>9912</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4845</v>
+        <v>4671</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20233</v>
+        <v>19592</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001430656041243952</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0006992570683288394</v>
+        <v>0.0006742385498783047</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002920396423864796</v>
+        <v>0.0028278894863282</v>
       </c>
     </row>
     <row r="25">
@@ -6209,19 +6209,19 @@
         <v>122231</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101319</v>
+        <v>101144</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146020</v>
+        <v>145541</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03606232322410104</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02989264323815752</v>
+        <v>0.02984100335406962</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04308100038530849</v>
+        <v>0.04293953625114672</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -6230,19 +6230,19 @@
         <v>152981</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>127432</v>
+        <v>129388</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>178728</v>
+        <v>179622</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04323031029493361</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03601069197257735</v>
+        <v>0.03656328593503212</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05050615515471463</v>
+        <v>0.05075870088730332</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>251</v>
@@ -6251,19 +6251,19 @@
         <v>275212</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>238717</v>
+        <v>242583</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>307176</v>
+        <v>309386</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03972355052200689</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03445598614229694</v>
+        <v>0.03501396697984251</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0443372628375519</v>
+        <v>0.04465625449228621</v>
       </c>
     </row>
     <row r="26">
@@ -6280,19 +6280,19 @@
         <v>156345</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04612722458709606</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>113</v>
@@ -6301,19 +6301,19 @@
         <v>121185</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03424518408138488</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>256</v>
@@ -6322,19 +6322,19 @@
         <v>277530</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04005817749975527</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
     </row>
     <row r="27">
@@ -6351,19 +6351,19 @@
         <v>3104093</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3068952</v>
+        <v>3068792</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3136625</v>
+        <v>3136233</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9158138395187362</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9054459620704957</v>
+        <v>0.9053986537501236</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.925411889386703</v>
+        <v>0.9252962802810643</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3078</v>
@@ -6372,19 +6372,19 @@
         <v>3261427</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3227087</v>
+        <v>3224535</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3292964</v>
+        <v>3293005</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9216359284477165</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9119318962150401</v>
+        <v>0.9112107503439639</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9305479586439583</v>
+        <v>0.9305595370775144</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6045</v>
@@ -6393,19 +6393,19 @@
         <v>6365521</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6313429</v>
+        <v>6318364</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6413567</v>
+        <v>6411451</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9187876159369939</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9112686999325161</v>
+        <v>0.9119809692344395</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9257224620478905</v>
+        <v>0.9254169730859613</v>
       </c>
     </row>
     <row r="28">
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5336</v>
+        <v>5337</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001524467500221747</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00772579659579548</v>
+        <v>0.0077265422200309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5332</v>
+        <v>4876</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0007389796718532375</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003741991471149491</v>
+        <v>0.003421983512727007</v>
       </c>
     </row>
     <row r="5">
@@ -6800,19 +6800,19 @@
         <v>28362</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19268</v>
+        <v>19162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42371</v>
+        <v>39357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04106244248010086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02789598114671334</v>
+        <v>0.02774200883818631</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06134407312534284</v>
+        <v>0.05698104898470017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -6821,19 +6821,19 @@
         <v>36031</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27581</v>
+        <v>27156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47007</v>
+        <v>46883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04907626088614649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03756754329935408</v>
+        <v>0.03698786106682022</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06402689221106718</v>
+        <v>0.06385822133030435</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>87</v>
@@ -6842,19 +6842,19 @@
         <v>64393</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50270</v>
+        <v>51863</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79870</v>
+        <v>82289</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04519159368587517</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03527967685239913</v>
+        <v>0.03639766048529435</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05605343032188372</v>
+        <v>0.05775084442467187</v>
       </c>
     </row>
     <row r="6">
@@ -6871,19 +6871,19 @@
         <v>17073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10299</v>
+        <v>9887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27552</v>
+        <v>27727</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02471829517522814</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01491068710774985</v>
+        <v>0.01431429773680372</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03988999252395607</v>
+        <v>0.04014336151897547</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -6892,19 +6892,19 @@
         <v>8765</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5327</v>
+        <v>5343</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13371</v>
+        <v>14173</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0119383206507455</v>
+        <v>0.01193832065074549</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007256132846758731</v>
+        <v>0.007278106819616452</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01821275217371218</v>
+        <v>0.0193050006719521</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -6913,19 +6913,19 @@
         <v>25838</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18528</v>
+        <v>17963</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37589</v>
+        <v>35569</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01813336343061531</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01300326739313694</v>
+        <v>0.01260686404787946</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02638008194338486</v>
+        <v>0.02496269579519967</v>
       </c>
     </row>
     <row r="7">
@@ -6942,19 +6942,19 @@
         <v>644222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>628484</v>
+        <v>630161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>655500</v>
+        <v>656586</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9326947948444493</v>
+        <v>0.9326947948444492</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9099104494677485</v>
+        <v>0.9123377069404569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9490234061263088</v>
+        <v>0.9505959090380853</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1164</v>
@@ -6963,19 +6963,19 @@
         <v>689384</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>676992</v>
+        <v>677768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>698488</v>
+        <v>699622</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9389854184631078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9221059761466336</v>
+        <v>0.9231633325356279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9513850002469653</v>
+        <v>0.952929387762892</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1846</v>
@@ -6984,19 +6984,19 @@
         <v>1333605</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1316524</v>
+        <v>1315235</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1349971</v>
+        <v>1349973</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9359360632116563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9239483019791588</v>
+        <v>0.9230441790541765</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9474220676469115</v>
+        <v>0.9474234222981645</v>
       </c>
     </row>
     <row r="8">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5708</v>
+        <v>5790</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001090212924627044</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005441502896870203</v>
+        <v>0.005519664512184122</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -7109,19 +7109,19 @@
         <v>2645</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>785</v>
+        <v>712</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6737</v>
+        <v>6436</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002468953177499536</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0007325266284529949</v>
+        <v>0.0006642289598725002</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.00628728370882478</v>
+        <v>0.006006298619268658</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -7130,19 +7130,19 @@
         <v>3789</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1404</v>
+        <v>1232</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8797</v>
+        <v>8705</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.00178691671142262</v>
+        <v>0.001786916711422619</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0006619437139197674</v>
+        <v>0.0005811328206397513</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004148875079940575</v>
+        <v>0.004105577466293577</v>
       </c>
     </row>
     <row r="10">
@@ -7159,19 +7159,19 @@
         <v>96596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74826</v>
+        <v>75675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123450</v>
+        <v>124833</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09209081690239496</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07133659405152781</v>
+        <v>0.0721460446814281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1176924799637868</v>
+        <v>0.1190116272866976</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -7180,19 +7180,19 @@
         <v>89419</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73092</v>
+        <v>75644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106757</v>
+        <v>107200</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08345396403234004</v>
+        <v>0.08345396403234003</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06821673963003652</v>
+        <v>0.07059818807773442</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09963560642034959</v>
+        <v>0.1000494617001293</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -7201,19 +7201,19 @@
         <v>186014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>160480</v>
+        <v>161273</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>215361</v>
+        <v>218376</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08772645016397058</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07568416870595139</v>
+        <v>0.07605801189089068</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1015666137965053</v>
+        <v>0.1029883213353074</v>
       </c>
     </row>
     <row r="11">
@@ -7230,19 +7230,19 @@
         <v>35531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22855</v>
+        <v>23087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51582</v>
+        <v>51392</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03387420939952761</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02178954289472868</v>
+        <v>0.02201048287804023</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04917662357994398</v>
+        <v>0.04899514892549671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -7251,19 +7251,19 @@
         <v>29687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22426</v>
+        <v>21855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41364</v>
+        <v>39943</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02770713963706796</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02093016988729662</v>
+        <v>0.0203975455379173</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03860471537855299</v>
+        <v>0.03727826302580543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -7272,19 +7272,19 @@
         <v>65219</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>50830</v>
+        <v>50416</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>82972</v>
+        <v>84254</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03075787124374629</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02397183593443779</v>
+        <v>0.02377677491769452</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03913056886041118</v>
+        <v>0.03973502451746988</v>
       </c>
     </row>
     <row r="12">
@@ -7301,19 +7301,19 @@
         <v>915647</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>888702</v>
+        <v>885863</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>941511</v>
+        <v>941810</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8729447607734504</v>
+        <v>0.8729447607734505</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.847256830697547</v>
+        <v>0.8445499238203262</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8976027513006378</v>
+        <v>0.8978878858724324</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1344</v>
@@ -7322,19 +7322,19 @@
         <v>949722</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>928899</v>
+        <v>930905</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>966491</v>
+        <v>966330</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8863699431530926</v>
+        <v>0.8863699431530925</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8669353894587046</v>
+        <v>0.8688076906275505</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.902019691996603</v>
+        <v>0.9018697321643259</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2203</v>
@@ -7343,19 +7343,19 @@
         <v>1865369</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1830368</v>
+        <v>1827961</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1894564</v>
+        <v>1896091</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8797287618808605</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.863221809664993</v>
+        <v>0.8620869300403768</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8934975252039923</v>
+        <v>0.8942176863880028</v>
       </c>
     </row>
     <row r="13">
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3607</v>
+        <v>3571</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0008721466347490161</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0044407001258967</v>
+        <v>0.004396946248738204</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3595</v>
+        <v>3913</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0004385530776486134</v>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.002225542329263435</v>
+        <v>0.002422277222302023</v>
       </c>
     </row>
     <row r="15">
@@ -7510,19 +7510,19 @@
         <v>84519</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>66004</v>
+        <v>68152</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>102172</v>
+        <v>105650</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1052442457044109</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08218893556609067</v>
+        <v>0.08486453754480866</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1272257593387928</v>
+        <v>0.1315575227021603</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>126</v>
@@ -7531,19 +7531,19 @@
         <v>99877</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>83789</v>
+        <v>83714</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>118329</v>
+        <v>121404</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1229618185044741</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1031561274155222</v>
+        <v>0.1030627231125019</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1456784951861442</v>
+        <v>0.1494651340343758</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>200</v>
@@ -7552,19 +7552,19 @@
         <v>184396</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>162291</v>
+        <v>161237</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>211649</v>
+        <v>213691</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1141534081896472</v>
+        <v>0.1141534081896473</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1004692158484082</v>
+        <v>0.09981652088696499</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1310253570006878</v>
+        <v>0.132289414144914</v>
       </c>
     </row>
     <row r="16">
@@ -7581,19 +7581,19 @@
         <v>31100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18912</v>
+        <v>19484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47215</v>
+        <v>48080</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03872681321707104</v>
+        <v>0.03872681321707103</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02354892191440144</v>
+        <v>0.02426143613831155</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05879265779253871</v>
+        <v>0.05986993174475801</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -7602,19 +7602,19 @@
         <v>21440</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14897</v>
+        <v>14633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30011</v>
+        <v>31354</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02639599865449859</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01833980544080174</v>
+        <v>0.01801550320680576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03694721516397082</v>
+        <v>0.03860038830195314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -7623,19 +7623,19 @@
         <v>52541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37458</v>
+        <v>38231</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71549</v>
+        <v>72009</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03252634593224719</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02318876898889856</v>
+        <v>0.02366762774381182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04429386874422871</v>
+        <v>0.04457838737612364</v>
       </c>
     </row>
     <row r="17">
@@ -7652,19 +7652,19 @@
         <v>687454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>664769</v>
+        <v>663787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>709380</v>
+        <v>708051</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.856028941078518</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8277814038465129</v>
+        <v>0.8265588382574645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8833321972653543</v>
+        <v>0.8816770148171393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>891</v>
@@ -7673,19 +7673,19 @@
         <v>690233</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>671542</v>
+        <v>669350</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>708315</v>
+        <v>707804</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8497700362062783</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8267586807033558</v>
+        <v>0.8240599356451765</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8720311303794129</v>
+        <v>0.8714014716641455</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1471</v>
@@ -7694,19 +7694,19 @@
         <v>1377687</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1344978</v>
+        <v>1346823</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1404085</v>
+        <v>1405360</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.852881692800457</v>
+        <v>0.8528816928004569</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8326322451754717</v>
+        <v>0.8337745782773727</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8692237668071776</v>
+        <v>0.8700133425845441</v>
       </c>
     </row>
     <row r="18">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11891</v>
+        <v>11584</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002748254613911727</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01201064652334112</v>
+        <v>0.01170040940528259</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -7819,19 +7819,19 @@
         <v>3306</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1207</v>
+        <v>629</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9190</v>
+        <v>8056</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00295902018933364</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001080161767388125</v>
+        <v>0.0005627748049937778</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008225922642057347</v>
+        <v>0.007210190801920523</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -7840,19 +7840,19 @@
         <v>6027</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2300</v>
+        <v>2404</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13862</v>
+        <v>14799</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.002859997949489408</v>
+        <v>0.002859997949489407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001091401626349055</v>
+        <v>0.00114065623689215</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006577959138102771</v>
+        <v>0.007022832637444431</v>
       </c>
     </row>
     <row r="20">
@@ -7869,19 +7869,19 @@
         <v>136982</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116758</v>
+        <v>115292</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161509</v>
+        <v>160066</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1383566564881246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1179304931118286</v>
+        <v>0.1164494168018109</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.163129874314079</v>
+        <v>0.1616727970196409</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -7890,19 +7890,19 @@
         <v>165180</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>145486</v>
+        <v>146402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>187515</v>
+        <v>188886</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1478450628984251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1302179803711308</v>
+        <v>0.1310374695766791</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1678359121554575</v>
+        <v>0.1690628869462046</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>375</v>
@@ -7911,19 +7911,19 @@
         <v>302162</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>274241</v>
+        <v>272514</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>332161</v>
+        <v>331297</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1433872037180561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1301377375303657</v>
+        <v>0.1293183055268314</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1576229225705222</v>
+        <v>0.1572127287187726</v>
       </c>
     </row>
     <row r="21">
@@ -7940,19 +7940,19 @@
         <v>45946</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33650</v>
+        <v>35089</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61302</v>
+        <v>61600</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04640763544867541</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03398777129629785</v>
+        <v>0.035440754471465</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06191702745035049</v>
+        <v>0.06221866152772886</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>64</v>
@@ -7961,19 +7961,19 @@
         <v>43427</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33601</v>
+        <v>33459</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55942</v>
+        <v>56711</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03886976821563212</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03007473479271219</v>
+        <v>0.02994781573340315</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05007138036770876</v>
+        <v>0.0507590372918495</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>119</v>
@@ -7982,19 +7982,19 @@
         <v>89374</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73575</v>
+        <v>74810</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>108290</v>
+        <v>109128</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04241122177402373</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03491392252987102</v>
+        <v>0.03550038001251556</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05138751824897186</v>
+        <v>0.05178545769747189</v>
       </c>
     </row>
     <row r="22">
@@ -8011,19 +8011,19 @@
         <v>804413</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>778264</v>
+        <v>777336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>828466</v>
+        <v>828641</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8124874534492882</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7860759562822242</v>
+        <v>0.7851391353403623</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8367824100960638</v>
+        <v>0.8369585056252442</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1260</v>
@@ -8032,19 +8032,19 @@
         <v>905339</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>880559</v>
+        <v>880366</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>927871</v>
+        <v>926731</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8103261486966092</v>
+        <v>0.8103261486966093</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7881466578321766</v>
+        <v>0.7879738606964531</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8304934426130105</v>
+        <v>0.8294732011329961</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2066</v>
@@ -8053,19 +8053,19 @@
         <v>1709752</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1675475</v>
+        <v>1675216</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1743887</v>
+        <v>1742784</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8113415765584308</v>
+        <v>0.8113415765584306</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7950757777823152</v>
+        <v>0.7949526841486112</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8275395998809529</v>
+        <v>0.8270165442285354</v>
       </c>
     </row>
     <row r="23">
@@ -8157,19 +8157,19 @@
         <v>4917</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11487</v>
+        <v>12962</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001391956367994032</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003284461166997379</v>
+        <v>0.000325695169496238</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003251560035397403</v>
+        <v>0.003668976090901624</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -8178,19 +8178,19 @@
         <v>6660</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3260</v>
+        <v>3003</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12981</v>
+        <v>12817</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001783000455262253</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0008729109337029065</v>
+        <v>0.0008038576167978983</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.003475399070888526</v>
+        <v>0.003431408622272224</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -8199,19 +8199,19 @@
         <v>11577</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6184</v>
+        <v>6044</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21497</v>
+        <v>20770</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.001592923477362397</v>
+        <v>0.001592923477362398</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0008508683874120576</v>
+        <v>0.0008315601235331377</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002957847634765635</v>
+        <v>0.00285775481517766</v>
       </c>
     </row>
     <row r="25">
@@ -8228,19 +8228,19 @@
         <v>346458</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>309617</v>
+        <v>306898</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>387119</v>
+        <v>390106</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09807011529444903</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08764159241437497</v>
+        <v>0.08687208256015291</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1095797820433328</v>
+        <v>0.1104252881558809</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>541</v>
@@ -8249,19 +8249,19 @@
         <v>390507</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>359096</v>
+        <v>361519</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>424372</v>
+        <v>427908</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1045486940563457</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09613915781541785</v>
+        <v>0.09678792426880536</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1136152795117236</v>
+        <v>0.1145618996630344</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>861</v>
@@ -8270,19 +8270,19 @@
         <v>736965</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>686290</v>
+        <v>687370</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>789554</v>
+        <v>793765</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1013996151871315</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09442724609569607</v>
+        <v>0.09457583715678379</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.108635376093873</v>
+        <v>0.1092147537039077</v>
       </c>
     </row>
     <row r="26">
@@ -8299,19 +8299,19 @@
         <v>129651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03669970105723599</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>156</v>
@@ -8320,19 +8320,19 @@
         <v>103320</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0276614500664914</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>281</v>
@@ -8341,19 +8341,19 @@
         <v>232971</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03205472307522696</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="27">
@@ -8370,19 +8370,19 @@
         <v>3051735</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3006500</v>
+        <v>3002670</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3095597</v>
+        <v>3098750</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.863838227280321</v>
+        <v>0.8638382272803211</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8510338386567027</v>
+        <v>0.849949685457399</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8762541312426015</v>
+        <v>0.8771466398698373</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4659</v>
@@ -8391,19 +8391,19 @@
         <v>3234679</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3195679</v>
+        <v>3196838</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3266585</v>
+        <v>3269363</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8660068554219005</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8555653256016291</v>
+        <v>0.8558757860968524</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8745489093478472</v>
+        <v>0.8752924595034827</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7586</v>
@@ -8412,19 +8412,19 @@
         <v>6286414</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6225606</v>
+        <v>6220140</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6343953</v>
+        <v>6341118</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8649527382602791</v>
+        <v>0.8649527382602792</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8565860539873991</v>
+        <v>0.8558340533942992</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8728695597132334</v>
+        <v>0.8724794735778953</v>
       </c>
     </row>
     <row r="28">
